--- a/docs/MI-protocol.xlsx
+++ b/docs/MI-protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeguser\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeguser\Documents\git\neurow-cuebased\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>LEFT MI</t>
   </si>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AR8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,9 +445,7 @@
       <c r="AH4" t="s">
         <v>2</v>
       </c>
-      <c r="AR4" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="AR4" s="9"/>
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
@@ -502,9 +500,7 @@
       <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
-      <c r="AR5" s="9">
-        <v>14</v>
-      </c>
+      <c r="AR5" s="9"/>
     </row>
     <row r="6" spans="2:44" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:44" x14ac:dyDescent="0.25">
